--- a/biology/Histoire de la zoologie et de la botanique/Charles_Armand_Picquenard/Charles_Armand_Picquenard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Armand_Picquenard/Charles_Armand_Picquenard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Charles Armand Picquenard, né à Quimper le 14 mars 1872 et mort le 3 janvier 1940 à La Forêt-Fouesnant, est un médecin, professeur d'université, botaniste lichenologue, poète et écrivain en français, breton et cornique. Régionaliste, il est un des dirigeants du Gorsedd de Bretagne. Il a enseigné la botanique à l'Université de Rennes et a été membre de la Société botanique de France et responsable régional des Scouts de France. Il a été aussi adjoint au maire de Quimper, chevalier de la Légion d'honneur en 1932 et chevalier du Mérite social. Il a reçu la Légion d'Honneur au titre militaire.
 </t>
@@ -513,26 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il passe sa jeunesse en Basse-Bretagne. Il a pour langues maternelles à la fois le breton et le français. Après des études au Collège de Quimper, il fait des études de médecine à Rennes. Il préside alors la corporation des étudiants. Il étudie aussi le breton, ainsi que le cornique.
-Botanique
-En même temps, il suit les cours de sciences naturelles à la Faculté des sciences de Rennes, sans cependant s'être jamais présenté à un examen de licence.  Il y fréquente notamment le Professeur de Botanique Louis Crié. Il connut aussi à cette époque James Lloyd. L'influence de ces deux botanistes confirme Picquenard dans son goût pour les plantes et, en 1891, à l'âge de 19 ans, sa première publication est une liste de Phanérogames et de Cryptogames, parue dans le premier bulletin de la Société des Sciences Naturelles de l'Ouest, dont il devint membre dès la fondation.
-En 1892, le premier bulletin de la Société Scientifique et Médicale de l'Ouest, qui venait de se fonder à Rennes, contient également deux notes de lui. Les notes se succédèrent nombreuses dans ces deux revues, et dans plusieurs autres, jusqu'en 1914. 
-Lichens
-C'est surtout l'étude des Lichens qui l'attira. Il entre en correspondance avec les lichénologues français en renom de l'époque : l'Abbé Harmand, l'Abbé Olivier, le Docteur Camus, Ambroise Viaud-Grand-Marais, Auguste Marie Hue, le Frère Gasilien, Alphonse Boistel, M. Monguillon et d'autres encore. 
-Dès 1898 il commença à apporter sa contribution effective à la connaissance des Lichens bretons. A Paris, il connait Wilhelm Nylander, dont il est son dernier disciple, jusqu'à sa mort en 1898. Il va achever ses études comme interne de l'hôpital Saint-Antoine, à Paris, et soutient sa thèse en 1900.
-Bretagne
-Il vient s'installer à Quimper. Il est un des fondateurs du Gorsedd de Bretagne en 1900 étant barde avec le nom de Mab Ronan ar Barz melen (Fils de Ronan, le barde blond). En 1908, il rompt avec le Gorsedd de Bretagne et écrit un article, réédité sous forme de brochure, dans lequel il réfute que le néodruidisme gallois, et donc, le néodruidisme breton, soit héritier d'une tradition ininterrompue. Lors de la reprise des activités du Gorsedd en 1926, il est convaincu par son ami François Jaffrennou de réintégrer le collège des bardes et devient druide porte-gui, puis l'un des membres du comité directeur (pouellgor).
-Il se marie en 1904 avec Blanche Rogez[1] à Boulogne-sur-Mer. La famille Rogez était liée avec Alfred Giard, dont Picquenard fait la connaissance.
-Il adhère en 1904 à la Société archéologique du Finistère et en est le vice-président de 1912 à 1928. Il publie alors quelques études archéologiques.
-Vers 1910, il entreprit de classer et de reviser les herbiers d'Algues des frères Hippolyte-Marie Crouan et Pierre-Louis Crouan, qui étaient conservés au Laboratoire maritime deConcarneau. Il consacra en 1911 et 1912 quatre publications à ces études. S'étant établi comme médecin dans sa ville natale, il y fait une brève carrière politique comme adjoint au maire (1912-1919). Il est administrateur, puis président de la Caisse d'épargne locale en 1937. Passionné de botanique, il crée en 1913 la Société d'horticulture et de sylviculture du Finistère qu'il préside jusqu'en 1927.
-Première Guerre mondiale
-Il est engagé volontaire lors de la Première Guerre mondiale, il finit capitaine et décide de rester médecin militaire.. Il ne resta pas inactif et il orienta ses recherches vers la géologie, plus particulièrement vers la paléobotanique, à l'instar de Louis Crié. Toute la période de l'après-guerre, jusqu'en 1926, est occupée surtout par des publications géologiques. Il un cours libre de paléobotanique de 1920 à 1922 au Laboratoire de Géologie à l'Université de Rennes et il a comme auditeur Yves Milon. Il écrit alors de nombreux articles dans les revues scientifiques spécialisées.
-Scoutisme
-Jusqu'en 1923, il est membre de l'Union régionaliste bretonne (URB), dans laquelle il prend successivement les fonctions de trésorier (jusqu'en 1905) et de vice-président. Très proche de François Jaffrennou, il publie de nombreux articles en français et en breton dans les revues dirigées par celui-ci (Ar Vro, Le Consortium breton, An Oaled-Le Foyer breton), ainsi que dans l'Hermine et Buhez Breiz.
-À partir de 1924, il s'engage dans le scoutisme catholique auprès des Scouts de France et devient commissaire pour la Bretagne jusqu'en juillet 1934, date après laquelle, il se consacre « à des travaux d'intérêt général intéressant l'ensemble des Scouts français ». Il travaille, cependant, avec une équipe de chefs et de cheftaines scouts, « Les Chevaliers de la Table ronde », à donner une couleur bretonne au scoutisme breton. C'est ainsi qu'il traduit en breton « les chants usuels des Scouts de France ».
-Il fait connaissance d'Henry des Abbayes en 1927; avec lequel il reste en relations constantes, herborisant ensemble dans les localités de Basse-Bretagne. Il se remet alors à l'étude des lichens, sur lesquels il n'avait rien publié depuis 1910, et de 1933 à 1936 il donna plusieurs notes de floristique et de biogéographie de ces Cryptogames.
-La Seconde Guerre mondiale éclate en septembre 1939. Il était médecin commandant de réserve, honoraire déjà depuis quelques années[2]. Il reprend du service comme engagé volontaire. Le 3 janvier 1940, une pneumonie foudroyante devait l'emporter, dans son manoir de Kerambarz, à La Forêt-Fouesnant, où il décède.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il passe sa jeunesse en Basse-Bretagne. Il a pour langues maternelles à la fois le breton et le français. Après des études au Collège de Quimper, il fait des études de médecine à Rennes. Il préside alors la corporation des étudiants. Il étudie aussi le breton, ainsi que le cornique.
 </t>
         </is>
       </c>
@@ -558,10 +557,205 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En même temps, il suit les cours de sciences naturelles à la Faculté des sciences de Rennes, sans cependant s'être jamais présenté à un examen de licence.  Il y fréquente notamment le Professeur de Botanique Louis Crié. Il connut aussi à cette époque James Lloyd. L'influence de ces deux botanistes confirme Picquenard dans son goût pour les plantes et, en 1891, à l'âge de 19 ans, sa première publication est une liste de Phanérogames et de Cryptogames, parue dans le premier bulletin de la Société des Sciences Naturelles de l'Ouest, dont il devint membre dès la fondation.
+En 1892, le premier bulletin de la Société Scientifique et Médicale de l'Ouest, qui venait de se fonder à Rennes, contient également deux notes de lui. Les notes se succédèrent nombreuses dans ces deux revues, et dans plusieurs autres, jusqu'en 1914. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lichens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est surtout l'étude des Lichens qui l'attira. Il entre en correspondance avec les lichénologues français en renom de l'époque : l'Abbé Harmand, l'Abbé Olivier, le Docteur Camus, Ambroise Viaud-Grand-Marais, Auguste Marie Hue, le Frère Gasilien, Alphonse Boistel, M. Monguillon et d'autres encore. 
+Dès 1898 il commença à apporter sa contribution effective à la connaissance des Lichens bretons. A Paris, il connait Wilhelm Nylander, dont il est son dernier disciple, jusqu'à sa mort en 1898. Il va achever ses études comme interne de l'hôpital Saint-Antoine, à Paris, et soutient sa thèse en 1900.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vient s'installer à Quimper. Il est un des fondateurs du Gorsedd de Bretagne en 1900 étant barde avec le nom de Mab Ronan ar Barz melen (Fils de Ronan, le barde blond). En 1908, il rompt avec le Gorsedd de Bretagne et écrit un article, réédité sous forme de brochure, dans lequel il réfute que le néodruidisme gallois, et donc, le néodruidisme breton, soit héritier d'une tradition ininterrompue. Lors de la reprise des activités du Gorsedd en 1926, il est convaincu par son ami François Jaffrennou de réintégrer le collège des bardes et devient druide porte-gui, puis l'un des membres du comité directeur (pouellgor).
+Il se marie en 1904 avec Blanche Rogez à Boulogne-sur-Mer. La famille Rogez était liée avec Alfred Giard, dont Picquenard fait la connaissance.
+Il adhère en 1904 à la Société archéologique du Finistère et en est le vice-président de 1912 à 1928. Il publie alors quelques études archéologiques.
+Vers 1910, il entreprit de classer et de reviser les herbiers d'Algues des frères Hippolyte-Marie Crouan et Pierre-Louis Crouan, qui étaient conservés au Laboratoire maritime deConcarneau. Il consacra en 1911 et 1912 quatre publications à ces études. S'étant établi comme médecin dans sa ville natale, il y fait une brève carrière politique comme adjoint au maire (1912-1919). Il est administrateur, puis président de la Caisse d'épargne locale en 1937. Passionné de botanique, il crée en 1913 la Société d'horticulture et de sylviculture du Finistère qu'il préside jusqu'en 1927.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est engagé volontaire lors de la Première Guerre mondiale, il finit capitaine et décide de rester médecin militaire.. Il ne resta pas inactif et il orienta ses recherches vers la géologie, plus particulièrement vers la paléobotanique, à l'instar de Louis Crié. Toute la période de l'après-guerre, jusqu'en 1926, est occupée surtout par des publications géologiques. Il un cours libre de paléobotanique de 1920 à 1922 au Laboratoire de Géologie à l'Université de Rennes et il a comme auditeur Yves Milon. Il écrit alors de nombreux articles dans les revues scientifiques spécialisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scoutisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 1923, il est membre de l'Union régionaliste bretonne (URB), dans laquelle il prend successivement les fonctions de trésorier (jusqu'en 1905) et de vice-président. Très proche de François Jaffrennou, il publie de nombreux articles en français et en breton dans les revues dirigées par celui-ci (Ar Vro, Le Consortium breton, An Oaled-Le Foyer breton), ainsi que dans l'Hermine et Buhez Breiz.
+À partir de 1924, il s'engage dans le scoutisme catholique auprès des Scouts de France et devient commissaire pour la Bretagne jusqu'en juillet 1934, date après laquelle, il se consacre « à des travaux d'intérêt général intéressant l'ensemble des Scouts français ». Il travaille, cependant, avec une équipe de chefs et de cheftaines scouts, « Les Chevaliers de la Table ronde », à donner une couleur bretonne au scoutisme breton. C'est ainsi qu'il traduit en breton « les chants usuels des Scouts de France ».
+Il fait connaissance d'Henry des Abbayes en 1927; avec lequel il reste en relations constantes, herborisant ensemble dans les localités de Basse-Bretagne. Il se remet alors à l'étude des lichens, sur lesquels il n'avait rien publié depuis 1910, et de 1933 à 1936 il donna plusieurs notes de floristique et de biogéographie de ces Cryptogames.
+La Seconde Guerre mondiale éclate en septembre 1939. Il était médecin commandant de réserve, honoraire déjà depuis quelques années. Il reprend du service comme engagé volontaire. Le 3 janvier 1940, une pneumonie foudroyante devait l'emporter, dans son manoir de Kerambarz, à La Forêt-Fouesnant, où il décède.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvres botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il aborda presque toutes les branches de la botanique, mais ses principaux travaux se rapportent à la répartition et l'écologie des plantes vasculaires, à la botanique appliquée et aux lichens. Une des régions les mieux étudiées par lui, et dans laquelle il fit connaître un nombre imposant de plantes rares, est la région de Pont-l'Abbé. Il explora non seulement le Finistère, mais aussi les autres départements bretons et particulièrement l'Ille-et-Vilaine, pour lequel il dressa, en 1897, le catalogue des plantes vasculaires. 
 Les Cryptogames vasculaires retinrent souvent son attention. C'est lui qui découvrit l'Isoetes lacustris L. dans l'Ouest, à l'étang de Rosporden. Il rechercha aussi spécialement le rare Aspidium lobatum Sw. et en fit connaître plusieurs stations nouvelles.
@@ -573,96 +767,105 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Œuvres zoologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Son œuvre zoologique n'est pas négligeable. En effet il s'occupa de malacologie et d'entomologie. Il donna notamment un catalogue des Gastéropodes marins de Loctudy et un catalogue des Lépidoptères du Finistère. Il ne se contenta pas d'observer et d'écrire; il amassa aussi d'importantes collections géologiques, botaniques et entomologiques, qui témoignent de sa grande activité.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1938, il voulut encore marquer son attachement à la Faculté des Sciences de Rennes en lui léguant, de son vivant, une grande partie de ses collections et de sa bibliothèque[3].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1938, il voulut encore marquer son attachement à la Faculté des Sciences de Rennes en lui léguant, de son vivant, une grande partie de ses collections et de sa bibliothèque.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Plantes vasculaires : floristique et biogéographie
-Contribution à la flore du Finistère. Bull. Soc. Se. Nat. Ouest, t. I, p. 76- 78, 1891 (comprend également des Mousses, Hépatiques, Algues, Lichens et Champignons).
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Plantes vasculaires : floristique et biogéographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Contribution à la flore du Finistère. Bull. Soc. Se. Nat. Ouest, t. I, p. 76- 78, 1891 (comprend également des Mousses, Hépatiques, Algues, Lichens et Champignons).
 Contribution à la flore du Finistère. Bull. Soc. Se. Nat. Ouest, t. I, P- 160, 1891 (comprend également des Cryptogames).
 Herborisations dans le sud du Finistère. Bull. Soc. Sc. Nat. Ouest, t. II, p. 45-63, 1892 (comprend également quelques Mousses, Algues et Lichens).
 Note sur les rosettes caulinaires et raméales du Sysimbrium austriacum Jacq. Bull. Soc. Se. et Méd. Ouest, t. I, fasc. 1, p. 40-43, 1892.
@@ -690,19 +893,156 @@
 Observations sur la flore forestière du massif du Lioran (Cantal). Bull. Soc. Sc. Bret., t. XII, fasc. 3-4, p. 185-189, 1935.
 A propos d'une nouvelle station de l'Aspidium lobatum Sw. Bull. Soc. Sc. Bret., t. XIII, fasc. 3-4, p. 145-147, 1936.
 Nouvelles additions à la flore de Belle-Ile-en-Mer. Bull. Soc. Sc. Bret., t. XIII, fasc. 1-2, p. 78-80, 1936.
-Observations sur les réactions de la flore des montagnes vis-à-vis du climat bas-breton. Mélanges dédiés au Prof. L. Daniel, p. 463-472, Rennes, Oberthur 1936 et Bull. Soc. Sc. Bret., t. XIV, fasc. hors série, p. 87-97, 1937.
-Bryologie
-Additions à la flore bryologique de la Bretagne. Rev. Bryol., 24e année, nO 2, p. 28-29, 1897.
-Algues
-Études sur les collections botaniques des frères Crouan. I. Les Characées de Bretagne. Trav. Scient. du Lab. Zool. et Physiol. Marit. de Ooncarneau, t. III, fasc. 4, p. 1-8, 1911.
+Observations sur les réactions de la flore des montagnes vis-à-vis du climat bas-breton. Mélanges dédiés au Prof. L. Daniel, p. 463-472, Rennes, Oberthur 1936 et Bull. Soc. Sc. Bret., t. XIV, fasc. hors série, p. 87-97, 1937.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bryologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Additions à la flore bryologique de la Bretagne. Rev. Bryol., 24e année, nO 2, p. 28-29, 1897.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Algues</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Études sur les collections botaniques des frères Crouan. I. Les Characées de Bretagne. Trav. Scient. du Lab. Zool. et Physiol. Marit. de Ooncarneau, t. III, fasc. 4, p. 1-8, 1911.
 Études sur les collections botaniques des frères Crouan. II. Fucoideae. Trav. Scient. du Lab. Zool. et Physiol. Marit. de Concarneau, t. III, fasc. 6, p. 1-44, 1911.
 Études sur les collections botaniques des frères Crouan. III. Grenus Guerinea Picq. Trav. Scient. du Lab. Zool. et Physiol. Marit. de Goncarneau, t. IV, fasc. 3, p. 1-5, 2 planches, 1912.
 Études sur les collections botaniques des frères Crouan. IV. Florideae. Trav. Scient. du Lab. Zool. et Physiol. Marit. de Concarneau, t. IV,
 fasc. 4, p. 1-105, 1912. 
-Champignons
-Quelques détails sur la distribution de la Morille aux environs de Brest. Rev. Bret. Bot. pure et appl., 4e année, n° 3-4, p. 130, 1909.
-Lichens
-Herborisations lichénologiques dans le Finistère de 1867 à 1897. Bull. Soc. Se. Nat. Ouest, t. VIII, p. 73-82, 1898.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Champignons</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Quelques détails sur la distribution de la Morille aux environs de Brest. Rev. Bret. Bot. pure et appl., 4e année, n° 3-4, p. 130, 1909.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lichens</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Herborisations lichénologiques dans le Finistère de 1867 à 1897. Bull. Soc. Se. Nat. Ouest, t. VIII, p. 73-82, 1898.
 Lichens nouveaux pour la flore du Finistère. Bull. Soc. Bot. Fr., t. 45, P- 68-69, 1898.
 Les Lichens foliacés et fruticuleux des forêts du Finistère. Bull. Soc. Bot. Fr., t. 45, p. 174-177, 1898.
 Deux Lichens nouveaux pour la flore du Finistère. Bull. Soc. Bot. Fr., t. 45, p. 309-310, 1898.
@@ -720,26 +1060,128 @@
 Remarques sur la flore lichénique de la forêt de Quénécan (Morbihan et Côtes-du-Nord). Bull. Soc. Se. Bret., t. XI, fasc. 3-4, p. 152-156, 1934.
 Remarques sur la flore lichénique du massif forestier du Huelgoat (Finistère et Côtes-du-Nord). Bull. Soc. Se. Bret., t. XII, fasc. 3-4, p. 153-156, 1935.
 Remarques sur la flore lichénique de la forêt du Beffou (Côtes-du-Nord). Bull. Soc. Se. Bret., t. XII, fasc. 1-2, p. 46-52, 1935.
-L'Alectoria thrausta Ach. (Lichen) dans la forêt de Coatloc'h (Finistère). Bull. Soc. Sc. Bret., t. XIII, fasc. 1-2, p. 24-26, 1936.
-Horticulture, sylviculture
-Le reboisement des landes et l'aménagement des bois particuliers en Basse-Bretagne. G. R. Gongr. Ass. Bret., 8 pages, 1900.
+L'Alectoria thrausta Ach. (Lichen) dans la forêt de Coatloc'h (Finistère). Bull. Soc. Sc. Bret., t. XIII, fasc. 1-2, p. 24-26, 1936.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Horticulture, sylviculture</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le reboisement des landes et l'aménagement des bois particuliers en Basse-Bretagne. G. R. Gongr. Ass. Bret., 8 pages, 1900.
 Étude sur la sylviculture en Basse-Cornouaille. Rev. de Bret., 24 pages, 1906.
 De la décoration des jardins et des parcs de notre région à l'aide d'arbres verts exotiques ou méditerranéens. Bull. Soc. Hort. et Sylv., Quimper, 4 pages, sans date.
 La réussite du reboisement de la Bretagne. Bull. Ass. Bret., 8 pages, 1924.
 Culture du Haricot vivace ou Haricot d'Espagne. Bull. Soc. Hort. et Sylve Quimper, 3 pages, 1926.
 Aperçu de l'état actuel de la culture des plantes médicinales en France. Bull. Soc. Hort. et Sylv. Quimper, 4 pages, 1926.
-Étude sur les Conifères. Bull. Soc. Sc. Bret., t. XV, fasc. 1-2, p. 17-33, 1938.
-Zoologie
-Note sur quelques Insectes nuisibles aux plantes potagères. Bull. Soc. Hort. et Sylv. Quimper, 3 pages, sans date.
+Étude sur les Conifères. Bull. Soc. Sc. Bret., t. XV, fasc. 1-2, p. 17-33, 1938.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Note sur quelques Insectes nuisibles aux plantes potagères. Bull. Soc. Hort. et Sylv. Quimper, 3 pages, sans date.
 L'Helix quimperiana Ferr. est-il indigène dans le Finistère? Bull. Soc. Sc. Nat. Ouest, t. III, p. 271-272, 1893.
 Liste des Gastéropodes marins de Loctudy et Ile Tudy (Finistère). Bull. Soc. Sc. et Méd. Ouest, t. II, fasc. 1, p. 44-48, 1893.
 Note sur un Palémonien d'eau douce récemment découvert en Ille-et-Vilaine, le Caridina Desmarestii Mill. Bull. Soc. Sc. et Méd. Ouest, t. V, fasc. 1, p. 44-45, 1896.
 Étude critique du Catalogue des Lépidoptères de Bretagne de W. J. Griffith. Bull. Soc. Sc. et Méd. Ouest, t. XVII, fasc. 3-4, p. 102-121, 1908.
 Contribution à la faune des Lépidoptères du Finistère. lre note. Bull. Soc. Sc. et Méd. Ouest, t. XIX, fasc. 1, p. 56-81, 1910.
 Contribution à la faune des Lépidoptères du Finistère. 2e note. Bull. Soc. Sc. et Méd. Ouest, t. XX, fasc. 1, p. 53-71, 1911.
-Les Chenilles nuisibles aux arbres fruitiers. Bull. Soc. Hort. et Sylv. Quimper, 5 pages, 1924.
-Géologie
-Sur quelques points de la géologie de la région méridionale du Massif Armoricain. Bull. Soc. Sc. et Méd. Ouest, t. XXVII, p. 33-42, 1918.
+Les Chenilles nuisibles aux arbres fruitiers. Bull. Soc. Hort. et Sylv. Quimper, 5 pages, 1924.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sur quelques points de la géologie de la région méridionale du Massif Armoricain. Bull. Soc. Sc. et Méd. Ouest, t. XXVII, p. 33-42, 1918.
 Sur la flore fossile des bassins houillers de Quimper et de Kergogne. C. R. Ac. Se., t. 170, p. 55, 1920.
 Observations sur quelques Fougères ou Ptéridospermées rares ou nouvellement reconnues dans le Stéphanien du Massif Armoricain. Bull. Soc. Géol. et Minér. Bret., 1.1, 7 fasc. 2, p. 105-109, 1920.
 Observation sur une communication de M. Ferronnière « Réponse aux questions posées par la Fédération Régionaliste Française au Sujet de la division de la France en régions économiques ». Bull. Soc. Géol. et Minér. Bret., t. I, fasc. 2, p. 110-113, 1920.
@@ -757,23 +1199,125 @@
 Contribution à l'étude de la flore Carboniférienne du Massif Armoricain. Bull. Soc. Géol. et Minér. Bret., t. V, fasc. 2-4, p. 117-119, 1924.
 Le séisme du 20 septembre 1924 à la Forêt-Fouesnant (Finistère). Bull. Soc. Géol. et Min'r. Bret., t. VI, fasc. 1, p. 34-40, 1925.
 Considération sur un ancien parcours fluviatile entre Bannalec et la baie des Trépassés (Finistère). Bull. Soc. Géol. et Minér. Bret., t. VII, fasc. 1-2, p. 50-51, 1926.
-Notes d'excursions dans le Callovien entre Fontenay-le-Comte et le Poiré-sur-Velluire. Bull. Soc. Géol. et Minér. Bret., t. VII, fasc. 3-4, p. 192-196, 1926.
-Sciences naturelles appliquées au scoutisme
-Trucs et procédés pour faire des collections de plantes et d'insectes. 100 pages, 15 fig. Éditions Spes, Paris, 1933.
+Notes d'excursions dans le Callovien entre Fontenay-le-Comte et le Poiré-sur-Velluire. Bull. Soc. Géol. et Minér. Bret., t. VII, fasc. 3-4, p. 192-196, 1926.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sciences naturelles appliquées au scoutisme</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Trucs et procédés pour faire des collections de plantes et d'insectes. 100 pages, 15 fig. Éditions Spes, Paris, 1933.
 Le Scoutisme au bord de la mer. Connaissances maritimes pour les Scouts terriens. 102 pages, 5 planches. Éditions Spes, Paris, 1933.
-Manuel pratique et élémentaire de la Forêt Française à l'usage des Chefs et Routiers Scouts et Éclaireurs. 222 pages, 12 fig. Éditions Spes, Paris, 1933.
-Archéologie
-« L'occupation romaine dans le bassin de l'Odet », Bulletin de la Société archéologique du Finistère, 1906, (1re partie[4] et 2e partie[4])
-« Ruines et substructions gallo-romaines du Cavardy et du Stang, canton de Fouesnant », Bulletin de la Société archéologique du Finistère, 1906[5]
+Manuel pratique et élémentaire de la Forêt Française à l'usage des Chefs et Routiers Scouts et Éclaireurs. 222 pages, 12 fig. Éditions Spes, Paris, 1933.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Archéologie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>« L'occupation romaine dans le bassin de l'Odet », Bulletin de la Société archéologique du Finistère, 1906, (1re partie et 2e partie)
+« Ruines et substructions gallo-romaines du Cavardy et du Stang, canton de Fouesnant », Bulletin de la Société archéologique du Finistère, 1906
 Alain Le Grand et les anciennes chroniques. Bull. Soc. Arch. Finistère, 1907, 5 pages.
 Autour de Locamand. Bull. Soc. Arch. Finistère, t. XXXIV, 9 pages, 1907.
 Rennes et ses abords à l'époque Gallo-Romaine. Bull. Soc. Arch. Finistère, 1907, 7 pages.
 Nouvelles recherches sur le règne d'Alain Le Grand. Bull. Soc. Arch. Finistère, t. XXXV, 3 pages, 1908.
 Recherches sur le parcours de quelques voies romaines dans la partie orientale de l'arrondissement de Quimper. Revue de Bretagne, 21 pages, 1 carte, 1909.
 L'expansion romaine dans le sud-ouest de l'Armorique. Bull. Soc. Arch. Finistère, 70 pages, 1 carte, 1923.
-Recherches sur la toponomastique de l'exploitation du calcaire en Haute-Bretagne, 5 pages (tiré à part sans date ni mention d'extrait imprimé chez Prud'homme à Saint-Brieuc).
-Régionalisme, linguistique, divers
-Nécrologie : Le Chanoine Hodée. Bull. Soc. Se. et Méd. Ouest, t. IX, fasc. 1, p. 61-64, 1900.
+Recherches sur la toponomastique de l'exploitation du calcaire en Haute-Bretagne, 5 pages (tiré à part sans date ni mention d'extrait imprimé chez Prud'homme à Saint-Brieuc).</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Régionalisme, linguistique, divers</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nécrologie : Le Chanoine Hodée. Bull. Soc. Se. et Méd. Ouest, t. IX, fasc. 1, p. 61-64, 1900.
 Le 6e congrès de l'Union Régionaliste Bretonne à Lesneven. Revue de Bretagne, 32 pages, 1903.
 De l'évolution moderne du « Chupen » et du « Jilet » dans le costume masculin aux environs de Kemper. Revue de Bretagne, 21 pages, 1904.
 Le 7e congrès de l'Union Régionaliste Bretonne (en collaboration avec Madame PICQUENARD). Revue de Bretagne, 43 pages, 1905.
@@ -781,9 +1325,43 @@
 Le parler populaire de Quimper. Annales de Bret., p. 612-623, 1910.
 L'émigration bretonne. Conférence faite au théâtre de Pontivy au congrès de l'Union Régionaliste Bretonne le 13 septembre 1922. Redon, Imprim. Réunies. 1 brochure, 12 pages, 1912.
 Qu'est-ce que le Scoutisme? Imprim. du Nouvelliste, Rennes, 1 brochure, 12 pages, 1929.
-« Le Scoutisme et la Bretagne », In : An Oaled-Le Foyer breton, no 53, 3e trimestre 1935, p. 266-273.
-Œuvres littéraires
-Jeanne de Montfort. Pièce historique en 4 actes et en vers (sous le Pseudonyme de Charles de Keranbarz). 1 brochure, 59 pages, Quimper, Librairie Le Bris, 1901.
+« Le Scoutisme et la Bretagne », In : An Oaled-Le Foyer breton, no 53, 3e trimestre 1935, p. 266-273.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Armand_Picquenard</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Œuvres littéraires</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Jeanne de Montfort. Pièce historique en 4 actes et en vers (sous le Pseudonyme de Charles de Keranbarz). 1 brochure, 59 pages, Quimper, Librairie Le Bris, 1901.
 La Messe de Minuit. Scène en vers (sous le pseudonyme de Me Cormac). 1 brochure, 10 pages, Quimper, Le Prince, 1903.
 Hirvaudou Gralloun Meur. Poésie en vers bretons (sous le pseudonyme de Ar Barz Melen) avec une traduction en vers français : Lamentations de Gradlon Meur. L'Hermine, revue litt. et art. de Bretagne, t. XXIX, p. 130-135, 1903.
 Ode à La Tour d'Auvergne. Prononcée à la fête du Drapeau à Quimper, le 15 juillet 1923. Progrès du Finistère, du 31 juillet 1923.
